--- a/doc/FinishedTaskCounter.xlsx
+++ b/doc/FinishedTaskCounter.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Įvadas</t>
   </si>
@@ -59,9 +59,6 @@
     <t>Projektas</t>
   </si>
   <si>
-    <t>Reikalavimų specifikacija</t>
-  </si>
-  <si>
     <t>Komercinė specifikacija</t>
   </si>
   <si>
@@ -75,9 +72,6 @@
   </si>
   <si>
     <t>Techninė specifikacija</t>
-  </si>
-  <si>
-    <t>Projektavimo metodai</t>
   </si>
   <si>
     <t>Projektavimo valdymas ir eiga</t>
@@ -496,10 +490,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B39"/>
+  <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -509,7 +503,7 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -598,97 +592,134 @@
         <v>10</v>
       </c>
       <c r="B12" s="1">
-        <f>+SUM(B13:B25)/12</f>
-        <v>0</v>
+        <f>+SUM(B13:B23)/10</f>
+        <v>0.6</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>11</v>
       </c>
+      <c r="B13">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>12</v>
       </c>
+      <c r="B14" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>13</v>
       </c>
+      <c r="B15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>14</v>
       </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>15</v>
       </c>
+      <c r="B17" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>16</v>
       </c>
+      <c r="B18">
+        <v>1</v>
+      </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>17</v>
       </c>
+      <c r="B19">
+        <v>1</v>
+      </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>18</v>
       </c>
+      <c r="B20">
+        <v>1</v>
+      </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>19</v>
       </c>
+      <c r="B21">
+        <f>+(B22+B23)/2</f>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>20</v>
       </c>
+      <c r="B22" s="3">
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>21</v>
       </c>
-      <c r="B23">
-        <f>+(B24+B25)/2</f>
+      <c r="B23" s="3">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" t="s">
+    <row r="24" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="1" t="s">
         <v>22</v>
+      </c>
+      <c r="B24" s="1">
+        <f>+SUM(B25:B31)/7</f>
+        <v>0.6428571428571429</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
+      <c r="B25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
         <v>24</v>
       </c>
-      <c r="B26" s="1">
-        <f>+SUM(B27:B33)/7</f>
-        <v>0.6428571428571429</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" t="s">
+      <c r="B26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B27">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="2">
+        <f>+(B28+B29)/2</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -696,13 +727,12 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:2" s="2" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="2" t="s">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="2">
-        <f>+(B30+B31)/2</f>
-        <v>0.5</v>
+      <c r="B29" s="3">
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -721,11 +751,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
+    <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B32">
+      <c r="B32" s="1">
+        <f>+SUM(B33:B34)/2</f>
         <v>1</v>
       </c>
     </row>
@@ -733,58 +764,41 @@
       <c r="A33" t="s">
         <v>31</v>
       </c>
-      <c r="B33" s="3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="1" t="s">
+      <c r="B33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
         <v>32</v>
       </c>
-      <c r="B34" s="1">
-        <f>+SUM(B35:B36)/2</f>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" t="s">
+      <c r="B34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B35">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" t="s">
+      <c r="B35" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B36">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="B37" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="1" t="s">
+      <c r="B36" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="B38" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="B39" s="5">
-        <f>(B38+B37+B34+B26+B12+B2+B3)/COUNTA(B38,B37,B34,B26,B12,B3,B2)</f>
-        <v>0.78826530612244894</v>
+      <c r="B37" s="5">
+        <f>(B36+B35+B32+B24+B12+B2+B3)/COUNTA(B36,B35,B32,B24,B12,B3,B2)</f>
+        <v>0.87397959183673468</v>
       </c>
     </row>
   </sheetData>

--- a/doc/FinishedTaskCounter.xlsx
+++ b/doc/FinishedTaskCounter.xlsx
@@ -157,7 +157,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -188,6 +188,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -202,13 +208,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -492,8 +499,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -520,7 +527,7 @@
       </c>
       <c r="B3" s="1">
         <f>+SUM(B4:B11)/8</f>
-        <v>0.875</v>
+        <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -551,8 +558,8 @@
       <c r="A7" t="s">
         <v>5</v>
       </c>
-      <c r="B7" s="3">
-        <v>0</v>
+      <c r="B7" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -593,7 +600,7 @@
       </c>
       <c r="B12" s="1">
         <f>+SUM(B13:B23)/10</f>
-        <v>0.6</v>
+        <v>0.8</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
@@ -608,8 +615,8 @@
       <c r="A14" t="s">
         <v>12</v>
       </c>
-      <c r="B14" s="3">
-        <v>0</v>
+      <c r="B14" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -632,8 +639,8 @@
       <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B17" s="3">
-        <v>0</v>
+      <c r="B17" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -691,7 +698,7 @@
       </c>
       <c r="B24" s="1">
         <f>+SUM(B25:B31)/7</f>
-        <v>0.6428571428571429</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
@@ -716,7 +723,7 @@
       </c>
       <c r="B27" s="2">
         <f>+(B28+B29)/2</f>
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
@@ -731,8 +738,8 @@
       <c r="A29" t="s">
         <v>27</v>
       </c>
-      <c r="B29" s="3">
-        <v>0</v>
+      <c r="B29" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
@@ -747,8 +754,8 @@
       <c r="A31" t="s">
         <v>29</v>
       </c>
-      <c r="B31" s="3">
-        <v>0</v>
+      <c r="B31" s="6">
+        <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.3">
@@ -798,7 +805,7 @@
       </c>
       <c r="B37" s="5">
         <f>(B36+B35+B32+B24+B12+B2+B3)/COUNTA(B36,B35,B32,B24,B12,B3,B2)</f>
-        <v>0.87397959183673468</v>
+        <v>0.97142857142857142</v>
       </c>
     </row>
   </sheetData>
